--- a/Instances/K0014313_NonStationary_b2_fe25_en_rk50_ll0_l20_HTrue_c0.xlsx
+++ b/Instances/K0014313_NonStationary_b2_fe25_en_rk50_ll0_l20_HTrue_c0.xlsx
@@ -1004,7 +1004,7 @@
         <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>16.79191706730769</v>
+        <v>17.59221003605769</v>
       </c>
       <c r="I2" t="n">
         <v>200</v>
@@ -1462,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1567,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1602,7 +1602,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.625</v>
+        <v>10.875</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15.9375</v>
+        <v>21.75</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>18.8125</v>
+        <v>23.1875</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -2073,7 +2073,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23.90625</v>
+        <v>21.09375</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23.25</v>
+        <v>22.0390625</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>23.37890625</v>
+        <v>23.1328125</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>23.564453125</v>
+        <v>24.556640625</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>26.89453125</v>
+        <v>27.6416015625</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>25.974609375</v>
+        <v>29.47119140625</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
